--- a/Basic_Excel.xlsx
+++ b/Basic_Excel.xlsx
@@ -8,27 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\Github1\Data-Analytics-Portfolio-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0084CB3-93F8-48BD-B5B1-67480E73FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC7E41-A80C-479E-91D1-A766F93D2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{05647B15-473B-47D3-91BD-BD480719E370}"/>
+    <workbookView xWindow="14055" yWindow="0" windowWidth="14745" windowHeight="15585" activeTab="1" xr2:uid="{05647B15-473B-47D3-91BD-BD480719E370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$4:$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$20:$A$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$20:$B$21</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$A$12:$A$17</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$12:$B$17</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$A$12:$A$17</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$B$12:$B$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4:$A$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$4:$B$9</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$12:$A$17</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$12:$B$17</definedName>
     <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$12:$A$17</definedName>
     <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$B$12:$B$17</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$A$12:$A$17</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$12:$B$17</definedName>
     <definedName name="_xlchart.v5.6" hidden="1">Sheet1!$A$4:$A$9</definedName>
     <definedName name="_xlchart.v5.7" hidden="1">Sheet1!$B$4:$B$9</definedName>
   </definedNames>
@@ -118,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -199,18 +193,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1025,10 +1017,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1136,10 +1128,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.4</cx:f>
+        <cx:f>_xlchart.v2.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.5</cx:f>
+        <cx:f>_xlchart.v2.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1195,7 +1187,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1389,10 +1381,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.12</cx:f>
+        <cx:f>_xlchart.v2.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.13</cx:f>
+        <cx:f>_xlchart.v2.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4816,7 +4808,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2724150" y="471487"/>
+              <a:off x="2886075" y="471487"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4894,7 +4886,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2705100" y="3328987"/>
+              <a:off x="2867025" y="3328987"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5013,7 +5005,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="933450"/>
+              <a:off x="0" y="1009650"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5046,16 +5038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311728</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>159328</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
@@ -5091,7 +5083,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="19050" y="3733800"/>
+              <a:off x="4743450" y="1009650"/>
               <a:ext cx="4559878" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5124,16 +5116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>331153</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73978</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5482,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF69313-2339-43B1-B151-D25BDA08048C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5578,10 +5570,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -5659,7 +5650,7 @@
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <f>1-B20</f>
         <v>0.61126760563380289</v>
       </c>
@@ -5679,7 +5670,7 @@
   <dimension ref="F1:F2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
